--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 6.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 6.xlsx_with_dialog_acts.xlsx
@@ -1493,12 +1493,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1531,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1645,12 +1645,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2139,12 +2139,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2329,12 +2329,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
